--- a/neutralization_assays/data/neut_plate_reader_data/mAb_4F03_NeutralizationAssay.xlsx
+++ b/neutralization_assays/data/neut_plate_reader_data/mAb_4F03_NeutralizationAssay.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juhyemlee/Google Drive/Bloom_Lab/Perth2009_MAP/NeutralizationAssays/mutvalidation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="80" windowWidth="26840" windowHeight="11560" activeTab="3"/>
+    <workbookView xWindow="32580" yWindow="460" windowWidth="28600" windowHeight="16580" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="WT" sheetId="2" r:id="rId1"/>
@@ -14,6 +19,9 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -35,7 +43,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -97,7 +104,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -126,7 +132,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -188,7 +193,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -217,7 +221,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -279,7 +282,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -308,7 +310,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.3.10.0
 Tecan.At.Common.DocumentManagement, 3.3.10.0
@@ -370,7 +371,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">MEX, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
 MEM, V 1.20 Safire2 MCR  (V 1.20 Safire2 MCR )
@@ -496,12 +496,6 @@
     <t>ms</t>
   </si>
   <si>
-    <t>Part of Plate</t>
-  </si>
-  <si>
-    <t>B1-G12</t>
-  </si>
-  <si>
     <t>Start Time:</t>
   </si>
   <si>
@@ -572,6 +566,12 @@
   </si>
   <si>
     <t>4/27/2019 9:46:04 AM</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,6 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <u/>
@@ -1038,13 +1037,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:M38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1052,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1060,7 +1059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1068,7 +1067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1076,7 +1075,7 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1084,7 +1083,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1092,7 +1091,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1100,7 +1099,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1108,17 +1107,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1126,12 +1125,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1142,7 +1141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1153,7 +1152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1164,7 +1163,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1175,7 +1174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1186,7 +1185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1197,7 +1196,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1208,7 +1207,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1219,7 +1218,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1230,7 +1229,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1241,71 +1240,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="B33">
         <v>8160</v>
@@ -1344,9 +1340,9 @@
         <v>8052</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>28660</v>
@@ -1385,9 +1381,9 @@
         <v>28370</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>24789</v>
@@ -1426,9 +1422,9 @@
         <v>7955</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>27448</v>
@@ -1467,9 +1463,9 @@
         <v>7994</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>25743</v>
@@ -1508,9 +1504,9 @@
         <v>8033</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>29042</v>
@@ -1549,23 +1545,23 @@
         <v>28398</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1574,12 +1570,12 @@
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1587,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1595,7 +1591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1603,7 +1599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1611,15 +1607,15 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1627,7 +1623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1635,7 +1631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1643,17 +1639,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1661,12 +1657,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1677,7 +1673,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1688,7 +1684,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1699,7 +1695,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1710,7 +1706,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1721,7 +1717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1732,7 +1728,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -1743,7 +1739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1754,7 +1750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1765,7 +1761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -1776,71 +1772,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="B28" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>6955</v>
@@ -1879,9 +1872,9 @@
         <v>6965</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>31533</v>
@@ -1920,9 +1913,9 @@
         <v>26506</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>31915</v>
@@ -1961,9 +1954,9 @@
         <v>29424</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>31716</v>
@@ -2002,9 +1995,9 @@
         <v>29020</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>30913</v>
@@ -2043,9 +2036,9 @@
         <v>27938</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>28523</v>
@@ -2084,22 +2077,22 @@
         <v>29402</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2107,13 +2100,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:M38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2129,7 +2122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2145,15 +2138,15 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2161,7 +2154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2169,7 +2162,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2177,17 +2170,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2195,12 +2188,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2211,7 +2204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2222,7 +2215,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2233,7 +2226,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2244,7 +2237,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2255,7 +2248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2266,7 +2259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2277,7 +2270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2288,7 +2281,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2299,7 +2292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2310,71 +2303,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="B28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>6755</v>
@@ -2413,9 +2403,9 @@
         <v>6674</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>26134</v>
@@ -2454,9 +2444,9 @@
         <v>27854</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>26264</v>
@@ -2495,9 +2485,9 @@
         <v>6063</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>24771</v>
@@ -2536,9 +2526,9 @@
         <v>5959</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>24353</v>
@@ -2577,9 +2567,9 @@
         <v>5846</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>25432</v>
@@ -2618,23 +2608,23 @@
         <v>26495</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2642,13 +2632,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:A39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2656,7 +2646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2664,7 +2654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2672,7 +2662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2680,15 +2670,15 @@
         <v>43582</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2696,7 +2686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2704,7 +2694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2712,17 +2702,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2730,12 +2720,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2746,7 +2736,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2757,7 +2747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2768,7 +2758,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2779,7 +2769,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2790,7 +2780,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2801,7 +2791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>29</v>
       </c>
@@ -2812,7 +2802,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -2823,7 +2813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2834,7 +2824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -2845,71 +2835,68 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>36</v>
       </c>
-      <c r="E28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="B31" t="s">
+      <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2</v>
+      </c>
+      <c r="D31" s="3">
+        <v>3</v>
+      </c>
+      <c r="E31" s="3">
+        <v>4</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>6</v>
+      </c>
+      <c r="H31" s="3">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3">
+        <v>8</v>
+      </c>
+      <c r="J31" s="3">
+        <v>9</v>
+      </c>
+      <c r="K31" s="3">
+        <v>10</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+      <c r="M31" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2</v>
-      </c>
-      <c r="D32" s="3">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4</v>
-      </c>
-      <c r="F32" s="3">
-        <v>5</v>
-      </c>
-      <c r="G32" s="3">
-        <v>6</v>
-      </c>
-      <c r="H32" s="3">
-        <v>7</v>
-      </c>
-      <c r="I32" s="3">
-        <v>8</v>
-      </c>
-      <c r="J32" s="3">
-        <v>9</v>
-      </c>
-      <c r="K32" s="3">
-        <v>10</v>
-      </c>
-      <c r="L32" s="3">
-        <v>11</v>
-      </c>
-      <c r="M32" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>6231</v>
@@ -2948,9 +2935,9 @@
         <v>6164</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>25491</v>
@@ -2989,9 +2976,9 @@
         <v>23354</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>25607</v>
@@ -3030,9 +3017,9 @@
         <v>5589</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>22488</v>
@@ -3071,9 +3058,9 @@
         <v>5578</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>22773</v>
@@ -3112,9 +3099,9 @@
         <v>5491</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38">
         <v>24033</v>
@@ -3153,21 +3140,21 @@
         <v>22599</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>